--- a/data/steel/steel_IEAGHG_calcs.xlsx
+++ b/data/steel/steel_IEAGHG_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC59012-B16E-6942-A2CE-3458F2378164}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="465" windowWidth="23025" windowHeight="17055" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="23020" windowHeight="17060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <sheet name="Ladle Metallurgy" sheetId="13" r:id="rId5"/>
     <sheet name="Forming" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="169">
   <si>
     <t>CaCO3</t>
   </si>
@@ -41,9 +42,6 @@
     <t>MolMassRatio</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -293,9 +291,6 @@
     <t>blast furnace gas energy</t>
   </si>
   <si>
-    <t xml:space="preserve">make this come from energy carbon sources and reduce the energy produced accordingly (but not the </t>
-  </si>
-  <si>
     <t>Fe__in iron ore</t>
   </si>
   <si>
@@ -353,9 +348,6 @@
     <t>PCI coal</t>
   </si>
   <si>
-    <t>raw slag</t>
-  </si>
-  <si>
     <t>Fe__in hot metal</t>
   </si>
   <si>
@@ -497,9 +489,6 @@
     <t>raw liquid steel</t>
   </si>
   <si>
-    <t>CO2__from oxidation`</t>
-  </si>
-  <si>
     <t>discard</t>
   </si>
   <si>
@@ -522,15 +511,50 @@
   </si>
   <si>
     <t>energy in coke oven gas</t>
+  </si>
+  <si>
+    <t>slag, sludge, &amp;c</t>
+  </si>
+  <si>
+    <t>CO2__emitted</t>
+  </si>
+  <si>
+    <t>CO2__from lime</t>
+  </si>
+  <si>
+    <t>CO2__embodied in slag</t>
+  </si>
+  <si>
+    <t>CO2 not calcinated</t>
+  </si>
+  <si>
+    <t>CaCO3__in slag</t>
+  </si>
+  <si>
+    <t>discarded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -585,14 +609,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,6 +712,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -721,6 +764,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -896,299 +956,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1199,7 +1259,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1217,231 +1277,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1453,394 +1516,394 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
@@ -1853,579 +1916,579 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView topLeftCell="A9" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -2433,47 +2496,47 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -2481,23 +2544,23 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
@@ -2506,90 +2569,90 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>157</v>
+        <v>39</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -2598,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -2611,9 +2674,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -2622,10 +2685,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -2635,294 +2698,374 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>166</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>40</v>
+      <c r="H33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="I36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="I41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2930,361 +3073,361 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>156</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>160</v>
-      </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -3293,111 +3436,111 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3406,390 +3549,390 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
         <v>149</v>
       </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>128</v>
-      </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
       <c r="G13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3798,217 +3941,217 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>

--- a/data/steel/steel_IEAGHG_calcs.xlsx
+++ b/data/steel/steel_IEAGHG_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC59012-B16E-6942-A2CE-3458F2378164}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D20B1D-64D9-7846-B56F-FD7218CFD8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="23020" windowHeight="17060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="174">
   <si>
     <t>CaCO3</t>
   </si>
@@ -153,9 +153,6 @@
     <t>energycontent-LHV</t>
   </si>
   <si>
-    <t>coking coal__equivelent</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>energy in flue gas from coke</t>
   </si>
   <si>
-    <t>flue gas energy</t>
-  </si>
-  <si>
     <t>energy in coke</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>electricity demand</t>
   </si>
   <si>
-    <t>heat demand</t>
-  </si>
-  <si>
     <t>coke demand</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>combustion-lhv</t>
   </si>
   <si>
-    <t>blast furnace gas energy</t>
-  </si>
-  <si>
     <t>Fe__in iron ore</t>
   </si>
   <si>
@@ -513,9 +501,6 @@
     <t>energy in coke oven gas</t>
   </si>
   <si>
-    <t>slag, sludge, &amp;c</t>
-  </si>
-  <si>
     <t>CO2__emitted</t>
   </si>
   <si>
@@ -532,15 +517,59 @@
   </si>
   <si>
     <t>discarded</t>
+  </si>
+  <si>
+    <t>heat import</t>
+  </si>
+  <si>
+    <t>total energy in</t>
+  </si>
+  <si>
+    <t>energy in blast furnace gas</t>
+  </si>
+  <si>
+    <t>BFG Export</t>
+  </si>
+  <si>
+    <t>consumed BFG energy</t>
+  </si>
+  <si>
+    <t>total heat consumed</t>
+  </si>
+  <si>
+    <t>coke combustion energy</t>
+  </si>
+  <si>
+    <t>PCI combustion energy</t>
+  </si>
+  <si>
+    <t>biofuel combustion energy</t>
+  </si>
+  <si>
+    <t>waste heat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -609,14 +638,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -957,16 +988,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -1011,7 +1042,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1025,13 +1056,13 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1043,38 +1074,44 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
@@ -1085,22 +1122,22 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1108,13 +1145,13 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
@@ -1131,45 +1168,45 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1183,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>1</v>
@@ -1192,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1200,52 +1237,40 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1258,17 +1283,6 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,7 +1295,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -1329,16 +1343,16 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -1347,41 +1361,41 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -1390,121 +1404,121 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
         <v>163</v>
       </c>
-      <c r="E8" t="s">
-        <v>168</v>
-      </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1524,16 +1538,16 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
@@ -1542,7 +1556,7 @@
         <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
@@ -1550,25 +1564,25 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
@@ -1576,16 +1590,16 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1594,31 +1608,31 @@
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>39</v>
@@ -1626,16 +1640,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1649,16 +1663,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -1672,16 +1686,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -1690,27 +1704,27 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -1718,16 +1732,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -1736,21 +1750,21 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -1759,15 +1773,15 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1779,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -1787,10 +1801,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1802,7 +1816,7 @@
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -1810,7 +1824,7 @@
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1819,13 +1833,13 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -1833,7 +1847,7 @@
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1842,13 +1856,13 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -1856,16 +1870,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1877,7 +1891,7 @@
         <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
@@ -1885,16 +1899,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1903,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
@@ -1917,14 +1931,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
@@ -1936,7 +1951,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1968,16 +1983,16 @@
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
@@ -1986,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1994,16 +2009,16 @@
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>35</v>
@@ -2011,8 +2026,8 @@
       <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>76</v>
+      <c r="G3" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2020,16 +2035,16 @@
     </row>
     <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>39</v>
@@ -2038,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2046,16 +2061,16 @@
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>39</v>
@@ -2064,7 +2079,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2072,22 +2087,22 @@
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2096,22 +2111,22 @@
     </row>
     <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2120,16 +2135,16 @@
     </row>
     <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>39</v>
@@ -2138,7 +2153,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -2146,10 +2161,10 @@
     </row>
     <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -2164,7 +2179,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -2172,16 +2187,16 @@
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>39</v>
@@ -2190,7 +2205,7 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2198,16 +2213,16 @@
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>39</v>
@@ -2216,7 +2231,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2224,10 +2239,10 @@
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
@@ -2239,11 +2254,11 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>39</v>
@@ -2252,7 +2267,7 @@
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -2267,7 +2282,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2276,22 +2291,22 @@
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2300,7 +2315,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -2315,7 +2330,7 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2324,22 +2339,22 @@
     </row>
     <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>86</v>
+      <c r="D16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2348,22 +2363,22 @@
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>86</v>
+      <c r="D17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2372,22 +2387,22 @@
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>86</v>
+      <c r="D18" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2396,53 +2411,53 @@
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>74</v>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2450,275 +2465,283 @@
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>90</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>68</v>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>166</v>
+        <v>130</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2726,25 +2749,25 @@
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G32" t="s">
-        <v>166</v>
+      <c r="G32" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2752,268 +2775,261 @@
     </row>
     <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>39</v>
@@ -3022,50 +3038,157 @@
     </row>
     <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
     <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="50" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3076,13 +3199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -3093,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -3125,16 +3248,16 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3143,21 +3266,21 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -3171,16 +3294,16 @@
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
@@ -3194,16 +3317,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -3217,16 +3340,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3240,19 +3363,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -3263,65 +3386,65 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -3335,16 +3458,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -3353,41 +3476,41 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -3398,16 +3521,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -3416,15 +3539,15 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -3439,21 +3562,21 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -3462,21 +3585,21 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3485,7 +3608,7 @@
         <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -3493,25 +3616,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>15</v>
@@ -3519,16 +3642,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
         <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -3537,7 +3660,7 @@
         <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -3552,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3565,7 +3688,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>20</v>
@@ -3597,88 +3720,88 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -3687,30 +3810,30 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
@@ -3718,39 +3841,39 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -3759,30 +3882,30 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -3790,149 +3913,149 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +4068,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3960,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>20</v>
@@ -3992,16 +4115,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -4010,21 +4133,21 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -4033,21 +4156,21 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -4056,21 +4179,21 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -4079,7 +4202,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
@@ -4087,16 +4210,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -4110,16 +4233,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -4128,21 +4251,21 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -4151,7 +4274,7 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>

--- a/data/steel/steel_IEAGHG_calcs.xlsx
+++ b/data/steel/steel_IEAGHG_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D20B1D-64D9-7846-B56F-FD7218CFD8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -20,12 +19,12 @@
     <sheet name="Ladle Metallurgy" sheetId="13" r:id="rId5"/>
     <sheet name="Forming" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="178">
   <si>
     <t>CaCO3</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Carbon Content of Hot Metal</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
     <t>CaO Fraction of Sinter</t>
   </si>
   <si>
@@ -276,9 +272,6 @@
     <t>CaCO3 demand</t>
   </si>
   <si>
-    <t>combustion-lhv</t>
-  </si>
-  <si>
     <t>Fe__in iron ore</t>
   </si>
   <si>
@@ -547,12 +540,30 @@
   </si>
   <si>
     <t>waste heat</t>
+  </si>
+  <si>
+    <t>coking coal__lost</t>
+  </si>
+  <si>
+    <t>combustion-noenergyin-contribution</t>
+  </si>
+  <si>
+    <t>combustion-lhv-contribution</t>
+  </si>
+  <si>
+    <t>carbonation</t>
+  </si>
+  <si>
+    <t>CO2__embodied in hot metal</t>
+  </si>
+  <si>
+    <t>CO2__from hot metal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,23 +754,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -795,23 +789,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,234 +964,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -1229,51 +1204,63 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1284,6 +1271,17 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1291,234 +1289,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -1533,123 +1531,123 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1661,18 +1659,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -1681,243 +1679,243 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="H26" t="s">
         <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
       </c>
       <c r="I26" t="s">
         <v>1</v>
@@ -1930,688 +1928,688 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>83</v>
+        <v>148</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>148</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>83</v>
+        <v>148</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
         <v>165</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>167</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
         <v>165</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>167</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -2621,45 +2619,45 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>4</v>
@@ -2669,21 +2667,21 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>4</v>
@@ -2692,572 +2690,623 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>150</v>
+        <v>86</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>175</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>159</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>39</v>
+      <c r="H39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="I44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>39</v>
+        <v>80</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>106</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="50" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -3266,21 +3315,21 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -3289,21 +3338,21 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
@@ -3312,24 +3361,24 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3338,113 +3387,113 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
         <v>138</v>
       </c>
-      <c r="C9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="H9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -3456,101 +3505,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -3562,21 +3611,21 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -3585,85 +3634,85 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3672,136 +3721,136 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="135" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -3810,252 +3859,252 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4064,67 +4113,67 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -4133,44 +4182,44 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -4179,47 +4228,47 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -4231,18 +4280,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -4251,30 +4300,30 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>

--- a/data/steel/steel_IEAGHG_calcs.xlsx
+++ b/data/steel/steel_IEAGHG_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF6E63-DCD3-C04A-8FB0-025997B37220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -554,19 +555,26 @@
     <t>carbonation</t>
   </si>
   <si>
-    <t>CO2__embodied in hot metal</t>
-  </si>
-  <si>
     <t>CO2__from hot metal</t>
+  </si>
+  <si>
+    <t>CO2__embodied in hot metal (subtract from BF emissions)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -649,14 +657,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -754,6 +763,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -789,6 +815,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -964,25 +1007,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1031,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -1051,7 +1094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>153</v>
       </c>
@@ -1074,7 +1117,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
@@ -1097,7 +1140,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1120,7 +1163,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -1143,7 +1186,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>153</v>
       </c>
@@ -1166,7 +1209,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
@@ -1187,7 +1230,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1210,7 +1253,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1276,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -1260,7 +1303,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1271,7 +1314,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1289,25 +1332,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1339,7 +1382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1362,7 +1405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1382,7 +1425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1405,7 +1448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -1425,7 +1468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1445,7 +1488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1465,7 +1508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1488,7 +1531,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1554,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -1534,7 +1577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -1560,7 +1603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1586,7 +1629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -1609,7 +1652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1636,7 +1679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1659,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1682,7 +1725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -1705,7 +1748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1728,7 +1771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -1751,7 +1794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -1774,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -1797,7 +1840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1820,7 +1863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1843,7 +1886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1866,7 +1909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1895,7 +1938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1928,26 +1971,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -1979,7 +2022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2005,7 +2048,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2031,7 +2074,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2057,7 +2100,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -2083,7 +2126,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -2107,7 +2150,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2131,7 +2174,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2157,7 +2200,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2183,7 +2226,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2209,7 +2252,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -2235,7 +2278,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2263,7 +2306,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -2287,7 +2330,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -2311,7 +2354,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2335,7 +2378,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -2359,7 +2402,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -2383,7 +2426,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2407,7 +2450,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2435,7 +2478,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -2461,7 +2504,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2487,7 +2530,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -2515,7 +2558,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2543,7 +2586,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -2569,7 +2612,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -2595,7 +2638,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -2619,7 +2662,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2643,7 +2686,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -2667,7 +2710,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -2693,7 +2736,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2719,7 +2762,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -2745,7 +2788,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -2755,8 +2798,8 @@
       <c r="C32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>176</v>
+      <c r="D32" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>17</v>
@@ -2769,7 +2812,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -2795,7 +2838,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -2821,7 +2864,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -2845,7 +2888,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -2869,7 +2912,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -2895,7 +2938,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -2921,7 +2964,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -2949,7 +2992,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -2975,7 +3018,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -3003,7 +3046,7 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -3031,7 +3074,7 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -3057,7 +3100,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -3084,7 +3127,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3111,7 +3154,7 @@
       </c>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -3137,7 +3180,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -3164,7 +3207,7 @@
       </c>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -3191,7 +3234,7 @@
       </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -3217,7 +3260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3227,7 +3270,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -3245,25 +3288,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -3295,7 +3338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>127</v>
       </c>
@@ -3318,7 +3361,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>127</v>
       </c>
@@ -3341,7 +3384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>127</v>
       </c>
@@ -3364,7 +3407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>89</v>
       </c>
@@ -3387,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>89</v>
       </c>
@@ -3398,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -3410,7 +3453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
@@ -3433,7 +3476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>89</v>
       </c>
@@ -3456,7 +3499,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -3482,7 +3525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -3505,7 +3548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>88</v>
       </c>
@@ -3528,7 +3571,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>88</v>
       </c>
@@ -3548,7 +3591,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -3568,7 +3611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
@@ -3591,7 +3634,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
@@ -3614,7 +3657,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -3637,7 +3680,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>128</v>
       </c>
@@ -3663,7 +3706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>128</v>
       </c>
@@ -3689,7 +3732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>128</v>
       </c>
@@ -3721,21 +3764,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
@@ -3767,7 +3810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -3790,7 +3833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -3813,7 +3856,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -3839,7 +3882,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -3862,7 +3905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3888,7 +3931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3911,7 +3954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -3934,7 +3977,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -3960,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3986,7 +4029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -4009,7 +4052,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -4032,7 +4075,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -4055,7 +4098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -4078,7 +4121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4113,24 +4156,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
@@ -4162,7 +4205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -4208,7 +4251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -4231,7 +4274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4257,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -4280,7 +4323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -4303,7 +4346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>

--- a/data/steel/steel_IEAGHG_calcs.xlsx
+++ b/data/steel/steel_IEAGHG_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF6E63-DCD3-C04A-8FB0-025997B37220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B970C-CECA-E04E-BD27-460B7511AC62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke Oven" sheetId="2" r:id="rId1"/>
@@ -558,7 +558,7 @@
     <t>CO2__from hot metal</t>
   </si>
   <si>
-    <t>CO2__embodied in hot metal (subtract from BF emissions)</t>
+    <t>CO2__embodied in hot metal (do not count in CO2__emitted)</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +1975,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
